--- a/shop_page/phones_flask_project.xlsx
+++ b/shop_page/phones_flask_project.xlsx
@@ -22,7 +22,7 @@
     <t>256 Гб</t>
   </si>
   <si>
-    <t>Смартфон Samsung Galaxy A35 5G 6/128Gb Awesome Navy (SM-A356BZKBEUC)</t>
+    <t>Смартфон Samsung Galaxy A35 5G 6/128Gb Awesome Navy</t>
   </si>
   <si>
     <t>14 099 грн</t>

--- a/shop_page/phones_flask_project.xlsx
+++ b/shop_page/phones_flask_project.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Samsung S24 Ultra Titanium</t>
   </si>
@@ -22,6 +22,9 @@
     <t>256 Гб</t>
   </si>
   <si>
+    <t>samsung.jpeg</t>
+  </si>
+  <si>
     <t>Смартфон Samsung Galaxy A35 5G 6/128Gb Awesome Navy</t>
   </si>
   <si>
@@ -31,17 +34,47 @@
     <t>128 Гб</t>
   </si>
   <si>
+    <t>samsung_galaxyA35.jpg</t>
+  </si>
+  <si>
     <t>Смартфон Xiaomi Redmi Note 13 Pro 8/256Gb Midnight Black</t>
   </si>
   <si>
     <t>9 999 грн</t>
+  </si>
+  <si>
+    <t>xiaomi-redmi-note-13-pro.jpg</t>
+  </si>
+  <si>
+    <t>Мобільний телефон Oppo A78 8/256GB</t>
+  </si>
+  <si>
+    <t>10 232 грн</t>
+  </si>
+  <si>
+    <t>oppo-a78.jpg</t>
+  </si>
+  <si>
+    <t>X-STYLE 31 POWER TYPE-C</t>
+  </si>
+  <si>
+    <t>1050 грн</t>
+  </si>
+  <si>
+    <t>32 ГБ</t>
+  </si>
+  <si>
+    <t>X-STYLE_31.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -61,6 +94,16 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF221F1F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF222222"/>
+      <name val="&quot;Open Sans&quot;"/>
     </font>
   </fonts>
   <fills count="3">
@@ -83,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -97,6 +140,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -315,9 +364,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="73.13"/>
+    <col customWidth="1" min="1" max="1" width="50.0"/>
     <col customWidth="1" min="2" max="2" width="19.25"/>
-    <col customWidth="1" min="4" max="4" width="35.5"/>
+    <col customWidth="1" min="4" max="4" width="10.75"/>
+    <col customWidth="1" min="5" max="5" width="24.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -333,27 +383,33 @@
       <c r="D1" s="1">
         <v>35.0</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>57.0</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -361,7 +417,50 @@
       <c r="D3" s="1">
         <v>23.0</v>
       </c>
-    </row>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>88.0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/shop_page/phones_flask_project.xlsx
+++ b/shop_page/phones_flask_project.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Samsung S24 Ultra Titanium</t>
   </si>
   <si>
-    <t xml:space="preserve">64 000 грн</t>
+    <t xml:space="preserve">64000 грн</t>
   </si>
   <si>
     <t xml:space="preserve">256 Гб</t>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Смартфон Samsung Galaxy A35 5G 6/128Gb Awesome Navy</t>
   </si>
   <si>
-    <t xml:space="preserve">14 099 грн</t>
+    <t xml:space="preserve">14099 грн</t>
   </si>
   <si>
     <t xml:space="preserve">128 Гб</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Смартфон Xiaomi Redmi Note 13 Pro 8/256Gb Midnight Black</t>
   </si>
   <si>
-    <t xml:space="preserve">9 999 грн</t>
+    <t xml:space="preserve">9999 грн</t>
   </si>
   <si>
     <t xml:space="preserve">xiaomi-redmi-note-13-pro.jpg</t>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Мобільний телефон Oppo A78 8/256GB</t>
   </si>
   <si>
-    <t xml:space="preserve">10 232 грн</t>
+    <t xml:space="preserve">10232 грн</t>
   </si>
   <si>
     <t xml:space="preserve">oppo-a78.jpg</t>
@@ -282,18 +282,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -312,6 +312,9 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -329,6 +332,9 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="0" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -346,6 +352,9 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F3" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -363,6 +372,9 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F4" s="0" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
@@ -379,6 +391,9 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/shop_page/phones_flask_project.xlsx
+++ b/shop_page/phones_flask_project.xlsx
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t xml:space="preserve">Samsung S24 Ultra Titanium</t>
   </si>
   <si>
-    <t xml:space="preserve">64000 грн</t>
-  </si>
-  <si>
     <t xml:space="preserve">256 Гб</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
     <t xml:space="preserve">Смартфон Samsung Galaxy A35 5G 6/128Gb Awesome Navy</t>
   </si>
   <si>
-    <t xml:space="preserve">14099 грн</t>
-  </si>
-  <si>
     <t xml:space="preserve">128 Гб</t>
   </si>
   <si>
@@ -49,25 +43,16 @@
     <t xml:space="preserve">Смартфон Xiaomi Redmi Note 13 Pro 8/256Gb Midnight Black</t>
   </si>
   <si>
-    <t xml:space="preserve">9999 грн</t>
-  </si>
-  <si>
     <t xml:space="preserve">xiaomi-redmi-note-13-pro.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Мобільний телефон Oppo A78 8/256GB</t>
   </si>
   <si>
-    <t xml:space="preserve">10232 грн</t>
-  </si>
-  <si>
     <t xml:space="preserve">oppo-a78.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">X-STYLE 31 POWER TYPE-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1050 грн</t>
   </si>
   <si>
     <t xml:space="preserve">32 Гб</t>
@@ -285,10 +270,10 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.25"/>
@@ -300,17 +285,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1" t="n">
+        <v>64000</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="0" t="n">
         <v>22</v>
@@ -318,19 +303,19 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>14099</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
@@ -338,19 +323,19 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>9999</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
@@ -358,19 +343,19 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>10232</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>45</v>
@@ -378,19 +363,19 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1050</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>20</v>

--- a/shop_page/phones_flask_project.xlsx
+++ b/shop_page/phones_flask_project.xlsx
@@ -28,28 +28,47 @@
     <t xml:space="preserve">256 Гб</t>
   </si>
   <si>
-    <t xml:space="preserve">samsung.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Смартфон Samsung Galaxy A35 5G 6/128Gb Awesome Navy</t>
+    <t xml:space="preserve">Samsung S24 Ultra Titanium.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung Galaxy A35 5G 128Gb Awesome Navy</t>
   </si>
   <si>
     <t xml:space="preserve">128 Гб</t>
   </si>
   <si>
-    <t xml:space="preserve">samsung_galaxyA35.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Смартфон Xiaomi Redmi Note 13 Pro 8/256Gb Midnight Black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xiaomi-redmi-note-13-pro.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мобільний телефон Oppo A78 8/256GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oppo-a78.jpg</t>
+    <t xml:space="preserve">Samsung Galaxy A35 5G 128Gb Awesome Navy.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi Redmi Note 13 Pro 256Gb Midnight Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiaomi Redmi Note 13 Pro 256Gb Midnight Black.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oppo A78 256GB</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF221F1F"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Oppo A78 256GB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.jpg</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">X-STYLE 31 POWER TYPE-C</t>
@@ -58,7 +77,26 @@
     <t xml:space="preserve">32 Гб</t>
   </si>
   <si>
-    <t xml:space="preserve">X-STYLE_31.jpg</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="&quot;Open Sans&quot;"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">X-STYLE 31 POWER TYPE-C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.jpg</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -68,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -96,6 +134,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -103,7 +147,19 @@
       <color rgb="FF221F1F"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF221F1F"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="&quot;Open Sans&quot;"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -161,12 +217,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -182,12 +242,20 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -270,111 +338,111 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="64.89"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="2" t="n">
         <v>64000</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="0" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>14099</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>9999</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>10232</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="2" t="n">
         <v>1050</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="0" t="n">
